--- a/results/pathway_unique_genes.xlsx
+++ b/results/pathway_unique_genes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smitasahay/Desktop/PhD/Projects/Ketosis Paper/ketosis_project/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E4CFB947-C495-AD4E-AD6D-406DCBDA2749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{EA126BF4-4807-D047-88B0-2C81FBA91A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="26900" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="26900" windowHeight="16040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pathway_unique_genes" sheetId="1" r:id="rId1"/>
@@ -6574,8 +6574,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A670" sqref="A670:A674"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F672" sqref="F672"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26755,7 +26755,7 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE1D8BBB-73D3-4C45-BC9B-B6233EFE22C5}">
   <dimension ref="A1:D383"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A367" workbookViewId="0">
       <selection activeCell="A165" sqref="A165"/>
     </sheetView>
   </sheetViews>
